--- a/pred_ohlcv/54_21/2020-01-24 GNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 GNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>161034.1491723638</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>155490.3229723638</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>150811.2411723638</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>150811.2411723638</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>150811.2411723638</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>154591.5041723638</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>156270.5859723638</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>168293.3259723638</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>153176.7916723638</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>153176.7916723638</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>169207.9787723638</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>169322.5155723638</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>168626.6559723638</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>181949.8450723638</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>183390.9925723638</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>183390.9925723638</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>177012.1149723638</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>122767.4447723638</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>129563.7846723638</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>119792.1336723638</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>125018.2366723638</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>94462.43147236382</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>92979.98677236383</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>80237.83798617459</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>69644.3619861746</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>6342.6144861746</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>8905.6144861746</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>15028.4981861746</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>30710.2951861746</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>43619.0308861746</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-253565.5705625313</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-305454.8582625313</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-303842.6520625313</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-221858.8652153325</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>109922.5039846676</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>147039.8177539311</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>138037.1768539311</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>139837.1768539311</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>138797.1768539311</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>132182.9994539311</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>183787.9994539311</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>171451.2369539311</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>171451.2369539311</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>170207.0942539311</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-154513.2366460689</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 GNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 GNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>161034.1491723638</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>155490.3229723638</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>150811.2411723638</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>150811.2411723638</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>150811.2411723638</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>154591.5041723638</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>156270.5859723638</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>168293.3259723638</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>153176.7916723638</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>153176.7916723638</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>169207.9787723638</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>168626.6559723638</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>181949.8450723638</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>183390.9925723638</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>183390.9925723638</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>177012.1149723638</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>122767.4447723638</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>129563.7846723638</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>80237.83798617459</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>69644.3619861746</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>6342.6144861746</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>8905.6144861746</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>15028.4981861746</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>30710.2951861746</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>43619.0308861746</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-253565.5705625313</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-305454.8582625313</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-303842.6520625313</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-221858.8652153325</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>109922.5039846676</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>147039.8177539311</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>138037.1768539311</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>139837.1768539311</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>138797.1768539311</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>132182.9994539311</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>183787.9994539311</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>171451.2369539311</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>171451.2369539311</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>170207.0942539311</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-172176.8287460689</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-154513.2366460689</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
